--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
@@ -380,7 +380,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to ask &lt;small&gt;(&lt;em&gt;person&lt;/em&gt; に)&lt;/small&gt;</t>
+          <t>to ask (person に)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -392,7 +392,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to ride; to board &lt;small&gt;(～に)&lt;/small&gt;</t>
+          <t>to ride; to board (～に)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -404,7 +404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to do; to perform &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to do; to perform (～を)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>good-looking &lt;small&gt;(conjugates like いい)&lt;/small&gt;</t>
+          <t>good-looking (conjugates like いい)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fond of; to like &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>fond of; to like (～が)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>disgusted with; to dislike &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>disgusted with; to dislike (～が)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>very fond of; to love &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>very fond of; to love (～が)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to hate &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>to hate (～が)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,552 +436,552 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to swim</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>泳ぐ|およぐ</t>
+          <t>食べ物|たべもの</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to ask (person に)</t>
+          <t>drink</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>聞く|きく</t>
+          <t>飲み物|のみもの</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to ride; to board (～に)</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>乗る|のる</t>
+          <t>果物|くだもの</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to do; to perform (～を)</t>
+          <t>holiday; day off; absence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>やる</t>
+          <t>休み|やすみ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to go out</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>出かける|でかける</t>
+          <t>旅行|りょこう</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>新しい|あたらしい</t>
+          <t>海|うみ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>old (thing)</t>
+          <t>surfing</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>古い|ふるい</t>
+          <t>サーフィン</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hot (weather)</t>
+          <t>souvenir</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>暑い|あつい</t>
+          <t>お土産|おみやげ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cold (weather)</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>寒い|さむい</t>
+          <t>バス</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hot (thing)</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>熱い|あつい</t>
+          <t>天気|てんき</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>busy (people/days)</t>
+          <t>homework</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>忙しい|いそがしい</t>
+          <t>宿題|しゅくだい</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大きい|おおきい</t>
+          <t>テスト</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>birthday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>小さい|ちいさい</t>
+          <t>誕生日|たんじょうび</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>interesting; funny</t>
+          <t>room</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>面白い|おもしろい</t>
+          <t>部屋|へや</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>boring</t>
+          <t>I (used by men)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>つまらない</t>
+          <t>僕|ぼく</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>easy (problem); kind (person)</t>
+          <t>size L; large size</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>やさしい</t>
+          <t>Lサイズ|エルサイズ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>難しい|むずかしい</t>
+          <t>新しい|あたらしい</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>good-looking (conjugates like いい)</t>
+          <t>old (thing)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>かっこいい</t>
+          <t>古い|ふるい</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>frightening</t>
+          <t>hot (weather)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>怖い|こわい</t>
+          <t>暑い|あつい</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>cold (weather)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>楽しい|たのしい</t>
+          <t>寒い|さむい</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>inexpensive; cheap (thing)</t>
+          <t>hot (thing)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>安い|やすい</t>
+          <t>熱い|あつい</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>busy (people/days)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>食べ物|たべもの</t>
+          <t>忙しい|いそがしい</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>drink</t>
+          <t>large</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>飲み物|のみもの</t>
+          <t>大きい|おおきい</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>small</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>果物|くだもの</t>
+          <t>小さい|ちいさい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>holiday; day off; absence</t>
+          <t>interesting; funny</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>休み|やすみ</t>
+          <t>面白い|おもしろい</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>boring</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>旅行|りょこう</t>
+          <t>つまらない</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>easy (problem); kind (person)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>海|うみ</t>
+          <t>やさしい</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>surfing</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>サーフィン</t>
+          <t>難しい|むずかしい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>souvenir</t>
+          <t>good-looking (conjugates like いい)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>お土産|おみやげ</t>
+          <t>かっこいい</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>frightening</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>バス</t>
+          <t>怖い|こわい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>fun</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>天気|てんき</t>
+          <t>楽しい|たのしい</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>homework</t>
+          <t>inexpensive; cheap (thing)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宿題|しゅくだい</t>
+          <t>安い|やすい</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>fond of; to like (～が)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>テスト</t>
+          <t>好き|すき（な）</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>birthday</t>
+          <t>disgusted with; to dislike (～が)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>誕生日|たんじょうび</t>
+          <t>嫌い|きらい（な）</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>very fond of; to love (～が)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>部屋|へや</t>
+          <t>大好き|だいすき（な）</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I (used by men)</t>
+          <t>to hate (～が)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>僕|ぼく</t>
+          <t>大嫌い|だいきらい（な）</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>size L; large size</t>
+          <t>beautiful; clean</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lサイズ|エルサイズ</t>
+          <t>きれい（な）</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fond of; to like (～が)</t>
+          <t>healthy; energetic</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>好き|すき（な）</t>
+          <t>元気|げんき（な）</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>disgusted with; to dislike (～が)</t>
+          <t>quiet</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>嫌い|きらい（な）</t>
+          <t>静か|しずか（な）</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>very fond of; to love (～が)</t>
+          <t>lively</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>大好き|だいすき（な）</t>
+          <t>にぎやか（な）</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to hate (～が)</t>
+          <t>not busy; free (time)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>大嫌い|だいきらい（な）</t>
+          <t>暇|ひま（な）</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>beautiful; clean</t>
+          <t>to swim</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>きれい（な）</t>
+          <t>泳ぐ|およぐ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>healthy; energetic</t>
+          <t>to ask (person に)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>元気|げんき（な）</t>
+          <t>聞く|きく</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>quiet</t>
+          <t>to ride; to board (～に)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>静か|しずか（な）</t>
+          <t>乗る|のる</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lively</t>
+          <t>to do; to perform (～を)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>にぎやか（な）</t>
+          <t>やる</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>not busy; free (time)</t>
+          <t>to go out</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>暇|ひま（な）</t>
+          <t>出かける|でかける</t>
         </is>
       </c>
     </row>
@@ -992,604 +1060,604 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>mountain</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>元気な|げんきな</t>
+          <t>山|やま</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>Mr./Ms. Yamakawa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>天気|てんき</t>
+          <t>山川さん|やまかわさん</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>Mt. Fuji</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>電気|でんき</t>
+          <t>富士山|ふじさん</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>feeling</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>気持ち|きもち</t>
+          <t>川|かわ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>popularity</t>
+          <t>Mr./Ms. Ogawa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>人気|にんき</t>
+          <t>小川さん|おがわさん</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>heaven</t>
+          <t>fine</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>天国|てんごく</t>
+          <t>元気な|げんきな</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Japanese emperor</t>
+          <t>the first day of the year</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>天皇|てんのう</t>
+          <t>元日|がんじつ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>local</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>天才|てんさい</t>
+          <t>地元|じもと</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>fine</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>私|わたし</t>
+          <t>元気な|げんきな</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>private university</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>私立大学|しりつだいがく</t>
+          <t>天気|てんき</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>man (kun-yomi)</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>男の人|おとこのひと</t>
+          <t>電気|でんき</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>man (on-yomi)</t>
+          <t>feeling</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>男性|だんせい</t>
+          <t>気持ち|きもち</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>popularity</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>男の子|おとこのこ</t>
+          <t>人気|にんき</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>male student</t>
+          <t>heaven</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>男子学生|だんしがくせい</t>
+          <t>天国|てんごく</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>to see</t>
+          <t>Japanese emperor</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>見る|みる</t>
+          <t>天皇|てんのう</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sightseeing</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>見物|けんぶつ</t>
+          <t>天才|てんさい</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>flower viewing</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>花見|はなみ</t>
+          <t>私|わたし</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>opinion</t>
+          <t>private university</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>意見|いけん</t>
+          <t>私立大学|しりつだいがく</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>to go</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>行く|いく</t>
+          <t>今|いま</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>today</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>銀行|ぎんこう</t>
+          <t>今日|きょう</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>first line</t>
+          <t>tonight</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>一行目|いちぎょうめ</t>
+          <t>今晩|こんばん</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>this month</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>旅行|りょこう</t>
+          <t>今月|こんげつ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>this year</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>食べる|たべる</t>
+          <t>今年|ことし</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>Mr./Ms. Tanaka</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>食べ物|たべもの</t>
+          <t>田中さん|たなかさん</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>Mr./Ms. Yamada</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>食堂|しょくどう</t>
+          <t>山田さん|やまださん</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>meal</t>
+          <t>rice field</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>食事|しょくじ</t>
+          <t>田んぼ|たんぼ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>woman (kun-yomi)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>朝食|ちょうしょく</t>
+          <t>女の人|おんなのひと</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>woman (on-yomi)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>飲む|のむ</t>
+          <t>女性|じょせい</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>drink</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>飲み物|のみもの</t>
+          <t>女の子|おんなのこ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>drunken driving</t>
+          <t>the eldest daughter</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>飲酒運転|いんしゅうんてん</t>
+          <t>長女|ちょうじょ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mountain</t>
+          <t>man (kun-yomi)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>山|やま</t>
+          <t>男の人|おとこのひと</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mr./Ms. Yamakawa</t>
+          <t>man (on-yomi)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>山川さん|やまかわさん</t>
+          <t>男性|だんせい</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mt. Fuji</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>富士山|ふじさん</t>
+          <t>男の子|おとこのこ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>male student</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>川|かわ</t>
+          <t>男子学生|だんしがくせい</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mr./Ms. Ogawa</t>
+          <t>to see</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>小川さん|おがわさん</t>
+          <t>見る|みる</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>sightseeing</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>元気な|げんきな</t>
+          <t>見物|けんぶつ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the first day of the year</t>
+          <t>flower viewing</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>元日|がんじつ</t>
+          <t>花見|はなみ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>opinion</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>地元|じもと</t>
+          <t>意見|いけん</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>to go</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>今|いま</t>
+          <t>行く|いく</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>今日|きょう</t>
+          <t>銀行|ぎんこう</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>tonight</t>
+          <t>first line</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>今晩|こんばん</t>
+          <t>一行目|いちぎょうめ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>this month</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>今月|こんげつ</t>
+          <t>旅行|りょこう</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>this year</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>今年|ことし</t>
+          <t>食べる|たべる</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mr./Ms. Tanaka</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>田中さん|たなかさん</t>
+          <t>食べ物|たべもの</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mr./Ms. Yamada</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>山田さん|やまださん</t>
+          <t>食堂|しょくどう</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rice field</t>
+          <t>meal</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>田んぼ|たんぼ</t>
+          <t>食事|しょくじ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>woman (kun-yomi)</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>女の人|おんなのひと</t>
+          <t>朝食|ちょうしょく</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>woman (on-yomi)</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>女性|じょせい</t>
+          <t>飲む|のむ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>drink</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>女の子|おんなのこ</t>
+          <t>飲み物|のみもの</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>the eldest daughter</t>
+          <t>drunken driving</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>長女|ちょうじょ</t>
+          <t>飲酒運転|いんしゅうんてん</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-5.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1658,6 +1658,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>